--- a/Database/Database_003/Homework/Library/database.xlsx
+++ b/Database/Database_003/Homework/Library/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\IT\Techmaster\Onlab\Database\Database_003\Homework\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA021F39-E849-41F7-93C2-9D314A267892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEA3311-96C3-4B3D-B796-70C7C56F8EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="10845" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>Customer</t>
   </si>
@@ -139,13 +139,236 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+  </si>
+  <si>
+    <t>BOOK_AUTHOR</t>
+  </si>
+  <si>
+    <t>BOOK_CATEGORY</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>PUBLISHER</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>BORROW</t>
+  </si>
+  <si>
+    <t>BORROW_ITEM</t>
+  </si>
+  <si>
+    <t>borrow_quantity</t>
+  </si>
+  <si>
+    <t>return_quanity</t>
+  </si>
+  <si>
+    <t>Nhà Giả Kim</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NXB Hội Nhà Văn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Paulo Coelho</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>Tiểu thuyết</t>
+  </si>
+  <si>
+    <t>Mắt Biếc</t>
+  </si>
+  <si>
+    <t>NXB Trẻ</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Ánh</t>
+  </si>
+  <si>
+    <t>Truyện ngắn - tản văn</t>
+  </si>
+  <si>
+    <t>Cà Phê Cùng Tony</t>
+  </si>
+  <si>
+    <t>id_publisher</t>
+  </si>
+  <si>
+    <t>Tony Buổi Sáng</t>
+  </si>
+  <si>
+    <t>Chúng Ta Rồi Sẽ Hạnh Phúc, Theo Những Cách Khác Nhau</t>
+  </si>
+  <si>
+    <t>NXB Văn Học</t>
+  </si>
+  <si>
+    <t>Thảo Thảo</t>
+  </si>
+  <si>
+    <t>Thiên Quan Tứ Phúc</t>
+  </si>
+  <si>
+    <t>NXB Hà Nội</t>
+  </si>
+  <si>
+    <t>Ngôn tình</t>
+  </si>
+  <si>
+    <t>Mặc Hương Đồng Khứu</t>
+  </si>
+  <si>
+    <t>Rạp Chiếu Phim Thời Gian</t>
+  </si>
+  <si>
+    <t>NXB Thanh Niên</t>
+  </si>
+  <si>
+    <t>Diêu Dao</t>
+  </si>
+  <si>
+    <t>Sau Giờ Học</t>
+  </si>
+  <si>
+    <t>Keigo Higashino</t>
+  </si>
+  <si>
+    <t>Trinh thám-Kiếm hiệp</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes (Trọn Bộ 3 Cuốn)</t>
+  </si>
+  <si>
+    <t>Conan Doyle</t>
+  </si>
+  <si>
+    <t>NXB Phụ Nữ Việt Nam</t>
+  </si>
+  <si>
+    <t>Rèn Luyện Tư Duy Phản Biện</t>
+  </si>
+  <si>
+    <t>Albert Rutherford</t>
+  </si>
+  <si>
+    <t>Tâm lý-Kỹ Năng Sống</t>
+  </si>
+  <si>
+    <t>Đọc Vị Bất Kỳ Ai</t>
+  </si>
+  <si>
+    <t>NXB Lao Động</t>
+  </si>
+  <si>
+    <t>TS David J Lieberman</t>
+  </si>
+  <si>
+    <t>0985647512</t>
+  </si>
+  <si>
+    <t>0758426852</t>
+  </si>
+  <si>
+    <t>0958745624</t>
+  </si>
+  <si>
+    <t>Trần Văn Sơn</t>
+  </si>
+  <si>
+    <t>Trần Thị Hà</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Nam</t>
+  </si>
+  <si>
+    <t>son@gmail.com</t>
+  </si>
+  <si>
+    <t>ha@gmail.com</t>
+  </si>
+  <si>
+    <t>nam@gmail.com</t>
+  </si>
+  <si>
+    <t>son1234</t>
+  </si>
+  <si>
+    <t>ha1234</t>
+  </si>
+  <si>
+    <t>nam1234</t>
+  </si>
+  <si>
+    <t>Đống Đa</t>
+  </si>
+  <si>
+    <t>Cầu Giấy</t>
+  </si>
+  <si>
+    <t>Hoàng Mai</t>
+  </si>
+  <si>
+    <t>0984256842</t>
+  </si>
+  <si>
+    <t>0865425875</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Quang</t>
+  </si>
+  <si>
+    <t>Hoàng Chí Công</t>
+  </si>
+  <si>
+    <t>quang@gmai.com</t>
+  </si>
+  <si>
+    <t>cong@gmail.com</t>
+  </si>
+  <si>
+    <t>quang1234</t>
+  </si>
+  <si>
+    <t>cong1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +376,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -186,14 +442,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,220 +785,1577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:O22"/>
+  <dimension ref="A3:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="11.47265625" customWidth="1"/>
-    <col min="5" max="5" width="11.47265625" customWidth="1"/>
-    <col min="7" max="7" width="13.41796875" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="11.47265625" customWidth="1"/>
-    <col min="13" max="13" width="15.26171875" customWidth="1"/>
-    <col min="15" max="15" width="13.3671875" customWidth="1"/>
+    <col min="1" max="1" width="8.3125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.9453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.47265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.1015625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.3125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="14" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.83984375" style="4"/>
+    <col min="11" max="11" width="11.47265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="21" style="4" customWidth="1"/>
+    <col min="13" max="14" width="15.26171875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.89453125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.3671875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.3671875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.15625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.05078125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="17.15625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="8.83984375" style="4"/>
+    <col min="24" max="24" width="14.89453125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="13.20703125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="8.83984375" style="4"/>
+    <col min="27" max="27" width="17.9453125" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="8.83984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="3">
+        <v>227</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>68000</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="3">
+        <v>300</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>75000</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="Q6" s="3">
+        <v>2</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="3">
+        <v>2</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>2</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F7" s="3">
+        <v>268</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>55000</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="Q7" s="3">
+        <v>3</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="3">
+        <v>3</v>
+      </c>
+      <c r="U7" s="3">
+        <v>3</v>
+      </c>
+      <c r="W7" s="3">
+        <v>3</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="3">
+        <v>208</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>90000</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="Q8" s="3">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="3">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3">
+        <v>70</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="3">
+        <v>416</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12">
+        <v>150000</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="3">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" s="3">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F10" s="3">
+        <v>280</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>73000</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="K10" s="3">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="3">
+        <v>6</v>
+      </c>
+      <c r="U10" s="3">
+        <v>6</v>
+      </c>
+      <c r="W10" s="3">
+        <v>6</v>
+      </c>
+      <c r="X10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="3">
+        <v>320</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12">
+        <v>114000</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="K11" s="3">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3">
+        <v>7</v>
+      </c>
+      <c r="U11" s="3">
+        <v>7</v>
+      </c>
+      <c r="W11" s="3">
+        <v>7</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="12">
+        <v>293250</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="K12" s="3">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12">
+        <v>79200</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="K13" s="3">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3">
+        <v>9</v>
+      </c>
+      <c r="U13" s="3">
+        <v>9</v>
+      </c>
+      <c r="W13" s="3">
+        <v>9</v>
+      </c>
+      <c r="X13" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F14" s="3">
+        <v>223</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="12">
+        <v>63200</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="3">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="15"/>
+    </row>
+    <row r="16" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="15"/>
+    </row>
+    <row r="17" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="15"/>
+    </row>
+    <row r="18" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="15"/>
+    </row>
+    <row r="19" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="3"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="15"/>
+    </row>
+    <row r="20" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="15"/>
+    </row>
+    <row r="21" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="15"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="K27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="18">
+        <v>34850</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="18">
+        <v>35241</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="18">
+        <v>35641</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="K55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="N55" s="5"/>
+      <c r="P55" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="1" t="s">
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="K56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N56" s="5"/>
+      <c r="P56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="N57" s="5"/>
+      <c r="P57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="1" t="s">
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="M58" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="N58" s="5"/>
+      <c r="P58" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="1" t="s">
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="G59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="M59" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="1" t="s">
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M60" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="1" t="s">
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="1" t="s">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G14" s="1" t="s">
+    <row r="66" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="G66" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" s="1" t="s">
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="G67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="M67" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="1" t="s">
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="G68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="M17" s="1" t="s">
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="M68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M69" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="M18" s="1" t="s">
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M70" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="M19" s="1" t="s">
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M71" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="M20" s="1" t="s">
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M72" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="M21" s="1" t="s">
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M73" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="13:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="M22" s="1" t="s">
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M74" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="N74" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G28" r:id="rId1" xr:uid="{907B9D4E-7807-42D8-A06E-5CFC7EEE4312}"/>
+    <hyperlink ref="G29" r:id="rId2" xr:uid="{C58A280F-3C49-48CF-9A41-6E6D26BF0C8F}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{D763607F-7117-42A0-AC72-12448B3BA085}"/>
+    <hyperlink ref="E42" r:id="rId4" xr:uid="{41011DF5-9210-4407-93A2-A50AD79C30FD}"/>
+    <hyperlink ref="E43" r:id="rId5" xr:uid="{18BA78C3-1816-4318-8A03-1975F327034B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/Database_003/Homework/Library/database.xlsx
+++ b/Database/Database_003/Homework/Library/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\IT\Techmaster\Onlab\Database\Database_003\Homework\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEA3311-96C3-4B3D-B796-70C7C56F8EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E50FE-3D08-4280-855E-9E9C44169102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="10845" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>CUSTOMER</t>
   </si>
   <si>
-    <t>BORROW</t>
-  </si>
-  <si>
     <t>BORROW_ITEM</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>cong1234</t>
+  </si>
+  <si>
+    <t>BORROW_ SHELF</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -482,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -788,7 +788,7 @@
   <dimension ref="A3:AA74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -812,8 +812,8 @@
     <col min="19" max="19" width="9" style="4" customWidth="1"/>
     <col min="20" max="20" width="10.15625" style="4" customWidth="1"/>
     <col min="21" max="21" width="10.05078125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="17.15625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="8.83984375" style="4"/>
+    <col min="22" max="22" width="15.20703125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.5234375" style="4" customWidth="1"/>
     <col min="24" max="24" width="14.89453125" style="4" customWidth="1"/>
     <col min="25" max="25" width="13.20703125" style="4" customWidth="1"/>
     <col min="26" max="26" width="8.83984375" style="4"/>
@@ -861,10 +861,10 @@
         <v>39</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>40</v>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>14</v>
@@ -914,13 +914,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T5" s="3">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -974,13 +974,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3">
         <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3">
         <v>2019</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T6" s="3">
         <v>2</v>
@@ -1026,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1034,13 +1034,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3">
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3">
         <v>2017</v>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T7" s="3">
         <v>3</v>
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1094,13 +1094,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3">
         <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3">
         <v>2021</v>
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T8" s="3">
         <v>4</v>
@@ -1146,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1154,13 +1154,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3">
         <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3">
         <v>2021</v>
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1188,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T9" s="3">
         <v>5</v>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1214,13 +1214,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3">
         <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3">
         <v>2022</v>
@@ -1239,7 +1239,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1262,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1270,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3">
         <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3">
         <v>2021</v>
@@ -1295,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1318,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1326,13 +1326,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3">
         <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3">
         <v>2019</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1376,13 +1376,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3">
         <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3">
         <v>2020</v>
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1426,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3">
         <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
         <v>2019</v>
@@ -1451,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1646,10 +1646,10 @@
         <v>47</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S26" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -1701,13 +1701,13 @@
         <v>10</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W27" s="7" t="s">
         <v>33</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y27" s="8" t="s">
         <v>27</v>
@@ -1721,37 +1721,59 @@
         <v>1</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="18">
         <v>34850</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="18">
+        <v>44211</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
       <c r="O28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>2</v>
+      </c>
+      <c r="V28" s="3">
+        <v>2</v>
+      </c>
+      <c r="W28" s="18">
+        <v>44213</v>
+      </c>
+      <c r="X28" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -1759,37 +1781,59 @@
         <v>2</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" s="18">
         <v>35241</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="K29" s="3">
+        <v>2</v>
+      </c>
+      <c r="L29" s="18">
+        <v>44237</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2</v>
+      </c>
       <c r="O29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
+      <c r="S29" s="3">
+        <v>2</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1</v>
+      </c>
+      <c r="W29" s="18">
+        <v>44213</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -1797,37 +1841,53 @@
         <v>3</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="18">
         <v>35641</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="3">
+        <v>3</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
+      <c r="S30" s="3">
+        <v>3</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3">
+        <v>8</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1</v>
+      </c>
+      <c r="W30" s="18">
+        <v>44214</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>2</v>
+      </c>
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -1840,18 +1900,34 @@
       <c r="G31" s="3"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="3">
+        <v>4</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
+      <c r="S31" s="3">
+        <v>4</v>
+      </c>
+      <c r="T31" s="3">
+        <v>2</v>
+      </c>
+      <c r="U31" s="3">
+        <v>6</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1</v>
+      </c>
+      <c r="W31" s="18">
+        <v>44240</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>2</v>
+      </c>
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -1864,18 +1940,34 @@
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="3">
+        <v>5</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
+      <c r="S32" s="3">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2</v>
+      </c>
+      <c r="U32" s="3">
+        <v>9</v>
+      </c>
+      <c r="V32" s="3">
+        <v>3</v>
+      </c>
+      <c r="W32" s="18">
+        <v>44239</v>
+      </c>
+      <c r="X32" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -1888,7 +1980,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="K33" s="3"/>
+      <c r="K33" s="3">
+        <v>6</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -1912,7 +2006,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="3">
+        <v>7</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -1936,7 +2032,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="3">
+        <v>8</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -1960,7 +2058,9 @@
       <c r="G36" s="3"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="K36" s="3"/>
+      <c r="K36" s="3">
+        <v>9</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -1984,7 +2084,9 @@
       <c r="G37" s="3"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="3">
+        <v>10</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2025,16 +2127,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -2042,16 +2144,16 @@
         <v>2</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
